--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -1,41 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\eclipse-workspace-DL\DeepCry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292A65C-F9B3-47F7-820C-89B8C17870E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641D809-97B4-4D57-8C13-293C6276A1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-160" yWindow="3120" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
-    <sheet name="SNR vs Accuracy" sheetId="2" r:id="rId2"/>
-    <sheet name="Stats" sheetId="4" r:id="rId3"/>
-    <sheet name="Training Set Cry samples" sheetId="3" r:id="rId4"/>
+    <sheet name="Performance Summary" sheetId="6" r:id="rId2"/>
+    <sheet name="SNR vs Accuracy" sheetId="2" r:id="rId3"/>
+    <sheet name="Stats" sheetId="4" r:id="rId4"/>
+    <sheet name="Training Set Cry samples" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Performance!$P$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Performance!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Performance!$C$2:$C$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Performance!$O$2:$O$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Performance!$O$2:$O$10</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Performance!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Performance!$Q$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Performance!$Q$2:$Q$10</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Performance!$B$2:$B$10</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Performance!$W$1</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Performance!$W$2:$W$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Performance!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Performance!$R$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Performance!$R$2:$R$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Performance!$Q$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Performance!$Q$2:$Q$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Performance!$R$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Performance!$R$2:$R$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Performance!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Performance!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Performance!$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>file</t>
   </si>
@@ -285,12 +286,51 @@
   <si>
     <t>MEDIUM</t>
   </si>
+  <si>
+    <t>OVERALL-NURSERY</t>
+  </si>
+  <si>
+    <t>OVERALL-SUB-INTENSIVE</t>
+  </si>
+  <si>
+    <t>OVERALL-INTENSIVE</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>kappa - Landis &amp; Koch</t>
+  </si>
+  <si>
+    <t>kappa - Fleiss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>SNR (dB)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +340,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -324,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -335,9 +383,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,6 +427,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>SNR (dB) vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Performance Measurements</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -381,7 +502,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>accuracy</c:v>
+                  <c:v>Accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -398,11 +519,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'SNR vs Accuracy'!$A$2:$A$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.12869271030545</c:v>
@@ -425,7 +604,7 @@
                 <c:pt idx="6">
                   <c:v>16.706388264192899</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>16.860605159999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -438,7 +617,7 @@
             <c:numRef>
               <c:f>'SNR vs Accuracy'!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.86985708074788304</c:v>
@@ -486,7 +665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>precision</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -503,11 +682,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'SNR vs Accuracy'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.84455320013171598</c:v>
@@ -555,7 +792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall</c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,11 +809,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'SNR vs Accuracy'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.91692534284405303</c:v>
@@ -620,14 +915,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SNR vs Accuracy'!$E$1:$E$2</c:f>
+              <c:f>'SNR vs Accuracy'!$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87925253</c:v>
+                  <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -644,11 +936,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'SNR vs Accuracy'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.87925252983506597</c:v>
@@ -696,7 +1046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kappa</c:v>
+                  <c:v>Kappa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,11 +1063,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'SNR vs Accuracy'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.73864429404214305</c:v>
@@ -757,8 +1165,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -775,7 +1184,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -797,7 +1206,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -823,6 +1232,7 @@
         <c:axId val="457545936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -840,7 +1250,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -856,7 +1266,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1860,10 +2270,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1936,10 +2346,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1977,7 +2387,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>precision</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2018,10 +2428,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2059,7 +2469,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>recall</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2100,10 +2510,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2141,7 +2551,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>f1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2264,10 +2674,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2305,7 +2715,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>snr</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7162,8 +7572,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2514600" y="4603296"/>
-              <a:ext cx="3977369" cy="3295649"/>
+              <a:off x="2514600" y="4450896"/>
+              <a:ext cx="4276726" cy="3187699"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7240,8 +7650,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6634843" y="4622346"/>
-              <a:ext cx="4746172" cy="3295649"/>
+              <a:off x="6934200" y="4469946"/>
+              <a:ext cx="4756151" cy="3187699"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7318,8 +7728,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11552464" y="4631871"/>
-              <a:ext cx="4800601" cy="3295649"/>
+              <a:off x="11861800" y="4479471"/>
+              <a:ext cx="4876801" cy="3187699"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7396,8 +7806,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2496911" y="7988753"/>
-              <a:ext cx="3997779" cy="3295649"/>
+              <a:off x="2496911" y="7728403"/>
+              <a:ext cx="4297136" cy="3181349"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7474,8 +7884,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6608990" y="7987392"/>
-              <a:ext cx="4746172" cy="3295649"/>
+              <a:off x="6908347" y="7727042"/>
+              <a:ext cx="4756151" cy="3181349"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7552,8 +7962,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11538858" y="7987393"/>
-              <a:ext cx="4780190" cy="3295649"/>
+              <a:off x="11848194" y="7727043"/>
+              <a:ext cx="4856390" cy="3181349"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7969,31 +8379,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" customWidth="1"/>
-    <col min="28" max="28" width="22.5703125" customWidth="1"/>
-    <col min="29" max="29" width="26.140625" customWidth="1"/>
-    <col min="30" max="30" width="50.7109375" style="4" customWidth="1"/>
-    <col min="31" max="31" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="74.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" customWidth="1"/>
+    <col min="27" max="27" width="19.26953125" customWidth="1"/>
+    <col min="28" max="28" width="22.54296875" customWidth="1"/>
+    <col min="29" max="29" width="26.1796875" customWidth="1"/>
+    <col min="30" max="30" width="50.7265625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8091,7 +8501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8192,7 +8602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -8293,7 +8703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8394,7 +8804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8495,7 +8905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8596,7 +9006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -8697,7 +9107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -8798,7 +9208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -8899,7 +9309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -9000,7 +9410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -9012,7 +9422,7 @@
       <c r="W11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -9114,7 +9524,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -9159,8 +9569,16 @@
       <c r="Y13" t="s">
         <v>29</v>
       </c>
+      <c r="AB13">
+        <f>SUM(AB2:AB4)</f>
+        <v>508</v>
+      </c>
+      <c r="AC13">
+        <f>AB13/60</f>
+        <v>8.4666666666666668</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -9205,8 +9623,16 @@
       <c r="Y14" t="s">
         <v>29</v>
       </c>
+      <c r="AB14">
+        <f>SUM(AB5:AB8)</f>
+        <v>276</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" ref="AC14:AC15" si="10">AB14/60</f>
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -9231,15 +9657,15 @@
         <v>757659</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" ref="T15:V15" si="10">SUM(T9:T10)</f>
+        <f t="shared" ref="T15:V15" si="11">SUM(T9:T10)</f>
         <v>4035718</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1337095</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>129948</v>
       </c>
       <c r="W15" s="1">
@@ -9250,6 +9676,14 @@
       </c>
       <c r="Y15" t="s">
         <v>32</v>
+      </c>
+      <c r="AB15">
+        <f>SUM(AB9:AB10)</f>
+        <v>196</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="10"/>
+        <v>3.2666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -9260,212 +9694,699 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926EB29-E102-41BD-85E1-EE65239BDBEC}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" style="5"/>
+    <col min="6" max="7" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9.4416905218884395</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.89578415012513601</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.95206864235979505</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.84251737575266805</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.89394920722837301</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.79225372302574004</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5">
+        <v>13.662433206723801</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.85937026778149295</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.49130985727624299</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.65724227149038605</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.56228985783799201</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.480592436580282</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5">
+        <v>16.8606051572932</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.63616537065146905</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.48985461507399503</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.91633188208354699</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.63842086705484302</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.334303660633468</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="7">
+        <v>7.5166666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20.006339908803401</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.87475206202531197</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.72960046669312095</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.84521802191782003</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.78316513008760702</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.695775899905552</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16.706388264192899</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.79594955519226596</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.69880984505663202</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.97682467426669894</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.81475368452956698</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.60111202179827705</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.12869271030545</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.86985708074788304</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.84455320013171598</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.91692534284405303</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.87925252983506597</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.73864429404214305</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6.0375992830992899</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.62690879165735403</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.63291425511243404</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.93406974850273805</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.75455276854486097</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8.4319984469194101E-2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.4048959473515197</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.56755060737775398</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54175495993630995</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.82153689989248602</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.65293676783685395</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.139286312738678</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.0523168087946901</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.81987131209340003</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.19407537548554499</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.94992848860555001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.322302631830723</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.267446825708056</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10.588995756494741</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.76397199664584514</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.58277280016727484</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.89516532046645603</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.70595377862935171</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="7">
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>13.321576295301815</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.69333071983329253</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.54281393368663189</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.89197523958349179</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.67490973248128427</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8.4666666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5">
+        <f>AVERAGE(B5:B8)</f>
+        <v>11.46975504160026</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.82027541595467024</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.70380496353199429</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.90601812745042587</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.79221134138463678</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="5">
+        <f>AVERAGE(B9:B10)</f>
+        <v>4.7286063780731045</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.76566380530379752</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.36169354492222</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.85359736910592188</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.50809341994480217</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3.2666666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909789DB-59A8-4F7F-B13B-79BEF9E4B86F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>3.12869271030545</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.86985708074788304</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.84455320013171598</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.91692534284405303</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.87925252983506597</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.73864429404214305</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>4.4048959473515197</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.56755060737775398</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.54175495993630995</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.82153689989248602</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.65293676783685395</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.139286312738678</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>5.0523168087946901</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.81987131209340003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.19407537548554499</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.94992848860555001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.322302631830723</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.267446825708056</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>6.0375992830992899</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.62690879165735403</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.63291425511243404</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.93406974850273805</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.75455276854486097</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>8.4319984469194101E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>9.4416905218884395</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.89578415012513601</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.95206864235979505</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.84251737575266805</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.89394920722837301</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.79225372302574004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>13.662433206723801</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.85937026778149295</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.49130985727624299</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.65724227149038605</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.56228985783799201</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.480592436580282</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>16.706388264192899</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.79594955519226596</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.69880984505663202</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.97682467426669894</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.81475368452956698</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.60111202179827705</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>16.860605159999999</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.62019070700000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.47830087799999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.92059264500000004</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.62952649800000005</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.312208649</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>20.006339908803401</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.87475206202531197</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.72960046669312095</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.84521802191782003</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.78316513008760702</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.695775899905552</v>
       </c>
     </row>
@@ -9479,24 +10400,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7910754-46F7-4D59-AF31-37944544545A}">
   <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -9510,7 +10431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -9524,7 +10445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -9538,7 +10459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -9552,7 +10473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -9566,7 +10487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -9580,7 +10501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -9594,7 +10515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -9608,7 +10529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -9622,7 +10543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -9636,7 +10557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -9653,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -9670,7 +10591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -9687,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>74</v>
       </c>
@@ -9695,7 +10616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -9706,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -9717,7 +10638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -9734,7 +10655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131B9D98-B03F-434B-8572-4AEB95FBCB87}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9742,52 +10663,52 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -9796,7 +10717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\eclipse-workspace-DL\DeepCry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641D809-97B4-4D57-8C13-293C6276A1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3894E5-DDF6-466F-9B33-F2EE17E2F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="3120" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Performance!$O$2:$O$10</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Performance!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Performance!$Q$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Performance!$W$2:$W$10</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Performance!$Q$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Performance!$Q$2:$Q$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Performance!$R$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Performance!$R$2:$R$10</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Performance!$W$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Performance!$W$2:$W$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Performance!$R$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Performance!$R$2:$R$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Performance!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Performance!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Performance!$C$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Performance!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Performance!$Q$2:$Q$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Performance!$P$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Performance!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Performance!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Performance!$O$2:$O$10</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Performance!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Performance!$P$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Performance!$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -448,7 +448,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>SNR (dB) vs</a:t>
+              <a:t>SNR vs</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
@@ -2270,10 +2270,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2346,10 +2346,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2387,7 +2387,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>precision</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2428,10 +2428,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2469,7 +2469,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>recall</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2510,10 +2510,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2551,7 +2551,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>f1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2592,10 +2592,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2633,7 +2633,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>kappa</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2674,10 +2674,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2715,7 +2715,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69B320A9-5D37-46E1-B9C8-2F719F17411D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>snr</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7572,8 +7572,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2514600" y="4450896"/>
-              <a:ext cx="4276726" cy="3187699"/>
+              <a:off x="2514600" y="4603296"/>
+              <a:ext cx="3981451" cy="3295649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7650,8 +7650,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6934200" y="4469946"/>
-              <a:ext cx="4756151" cy="3187699"/>
+              <a:off x="6638925" y="4622346"/>
+              <a:ext cx="4724401" cy="3295649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7728,8 +7728,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11861800" y="4479471"/>
-              <a:ext cx="4876801" cy="3187699"/>
+              <a:off x="11534775" y="4631871"/>
+              <a:ext cx="4762501" cy="3295649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7806,8 +7806,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2496911" y="7728403"/>
-              <a:ext cx="4297136" cy="3181349"/>
+              <a:off x="2496911" y="7988753"/>
+              <a:ext cx="4001861" cy="3295649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7884,8 +7884,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6908347" y="7727042"/>
-              <a:ext cx="4756151" cy="3181349"/>
+              <a:off x="6613072" y="7987392"/>
+              <a:ext cx="4724401" cy="3295649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7962,8 +7962,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11848194" y="7727043"/>
-              <a:ext cx="4856390" cy="3181349"/>
+              <a:off x="11521169" y="7987393"/>
+              <a:ext cx="4742090" cy="3295649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8383,27 +8383,27 @@
       <selection activeCell="AD1" sqref="AD1:AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" customWidth="1"/>
-    <col min="27" max="27" width="19.26953125" customWidth="1"/>
-    <col min="28" max="28" width="22.54296875" customWidth="1"/>
-    <col min="29" max="29" width="26.1796875" customWidth="1"/>
-    <col min="30" max="30" width="50.7265625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="60.7265625" customWidth="1"/>
+    <col min="1" max="1" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" customWidth="1"/>
+    <col min="30" max="30" width="50.7109375" style="4" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -9422,7 +9422,7 @@
       <c r="W11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>8.4666666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -9701,17 +9701,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" style="5"/>
-    <col min="6" max="7" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>7.5166666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>2.5333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -10039,7 +10039,7 @@
       <c r="G11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>8.4666666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -10181,16 +10181,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.12869271030545</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>0.73864429404214305</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.4048959473515197</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>0.139286312738678</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.0523168087946901</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>0.267446825708056</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6.0375992830992899</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>8.4319984469194101E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9.4416905218884395</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>0.79225372302574004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>13.662433206723801</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>0.480592436580282</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16.706388264192899</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>0.60111202179827705</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16.860605159999999</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>0.312208649</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>20.006339908803401</v>
       </c>
@@ -10408,16 +10408,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>74</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -10663,52 +10663,52 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
